--- a/biology/Botanique/Jardin_de_Versailles/Jardin_de_Versailles.xlsx
+++ b/biology/Botanique/Jardin_de_Versailles/Jardin_de_Versailles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin de Versailles, également appelé jardin du château de Versailles ou, au pluriel, les jardins de Versailles ou les jardins du château de Versailles, est situé à l'ouest du château de Versailles.
 Au cours de l’Ancien Régime, le domaine de Versailles était constitué du Grand Parc – la vaste région boisée aux abords du château et du village de Versailles (en partie murée) – et du Petit Parc – la partie entourée d’un mur qui fut développé en jardins à la française près du château.
 Aujourd'hui, la différence entre Grand Parc et Petit Parc persiste sous d'autres appellations. Le Grand Parc est aujourd'hui désigné sous le terme parc de Versailles et comprend l'ensemble des espaces verts appartenant au domaine de Versailles (bois, champs, jardins des châteaux de Trianon, jardins du château de Versailles). Le Petit Parc, aujourd'hui désigné sous le terme jardin de Versailles, est la partie de ce parc de Versailles délimité par : à l'est le château de Versailles, à l'ouest le bassin du char d'Apollon, au nord le bassin de Neptune et au sud l'Orangerie et qui comprend les jardins à la française proches du château.
 Cet article traite du Petit Parc, aujourd'hui appelé jardin de Versailles, et de son évolution.
-Depuis l’époque de Louis XIII jusqu’à nos jours, les jardins ont subi de nombreuses évolutions. Certains bosquets ont également évolué et changé de nom. Les replantations ont été nombreuses. Les problèmes d’alimentation en eau des jardins[1] sont toujours d'actualité.
+Depuis l’époque de Louis XIII jusqu’à nos jours, les jardins ont subi de nombreuses évolutions. Certains bosquets ont également évolué et changé de nom. Les replantations ont été nombreuses. Les problèmes d’alimentation en eau des jardins sont toujours d'actualité.
 Parmi les 386 œuvres d'art qui enrichissent les jardins, dont 221 statues, Apollon occupe une place majeure. Il est représenté sept fois à divers endroits du parc. L'image idéalisée du Roi-Soleil est la plus éblouissante dans le bassin portant son nom, donnant sur le Grand Canal.
 Le créateur et principal architecte de ce jardin est André Le Nôtre.
 </t>
@@ -520,32 +532,301 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louis XIII
-Avec le dernier achat de terre de la famille Gondi et l’avènement de Louis XIII comme seigneur de Versailles, les premières traces des jardins s’établissent aux années 1661 dans l’espace à l’ouest du château. Des documents indiquent qu’à la fin de la décennie, Claude Mollet et Hilaire Masson conçurent les jardins qui sont restés probablement intacts jusqu'aux expansions commandées par Louis XIV lors des premières années de son règne. Ce plan primitif, que l’on peut voir aujourd’hui sur le plan de « Du Bus » (vers 1662), établit le dispositif à partir duquel les jardins de Louis XIV évoluèrent – surtout, la définition claire des axes principaux qui forment les lignes essentielles de l’aménagement des jardins.
+          <t>Louis XIII</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec le dernier achat de terre de la famille Gondi et l’avènement de Louis XIII comme seigneur de Versailles, les premières traces des jardins s’établissent aux années 1661 dans l’espace à l’ouest du château. Des documents indiquent qu’à la fin de la décennie, Claude Mollet et Hilaire Masson conçurent les jardins qui sont restés probablement intacts jusqu'aux expansions commandées par Louis XIV lors des premières années de son règne. Ce plan primitif, que l’on peut voir aujourd’hui sur le plan de « Du Bus » (vers 1662), établit le dispositif à partir duquel les jardins de Louis XIV évoluèrent – surtout, la définition claire des axes principaux qui forment les lignes essentielles de l’aménagement des jardins.
 En 1662, après la disgrâce de Nicolas Fouquet et l’appropriation de son château de Vaux-le-Vicomte, Louis XIV se concentra sur Versailles. Avec la participation de l’équipe de Vaux-le-Vicomte – Louis Le Vau, Charles Le Brun et André Le Nôtre –, Louis XIV entama un programme d’embellissement et d'expansion à Versailles, dont il s'occupa jusqu’à la fin de sa vie.
 Depuis lors, les expansions des jardins de Versailles suivirent les expansions du château. Par conséquent, les agrandissements de Louis XIV s’appliquèrent également aux jardins.
-Louis XIV : premier agrandissement
-L'année 1664 ne vit pas de changements majeurs au château ; l’attention se consacra au développement des jardins. Des bosquets et des parterres existants furent agrandis, d'autres créés. Les plus importantes créations de cette époque furent l’Orangerie et la Grotte de Téthys.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Louis XIV : premier agrandissement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'année 1664 ne vit pas de changements majeurs au château ; l’attention se consacra au développement des jardins. Des bosquets et des parterres existants furent agrandis, d'autres créés. Les plus importantes créations de cette époque furent l’Orangerie et la Grotte de Téthys.
 L’Orangerie, le chef-d’œuvre de  Louis Le Vau, se situait au sud du château, profitant de la pente naturelle de la colline. L’Orangerie fournissait abri et entreposage pour les orangers pendant l’hiver.
 La grotte de Thétys, qui se trouvait au nord du château, constituait une partie intégrante du symbolisme du château et des jardins, qui associait le Roi Soleil avec la métaphore solaire. La grotte s’acheva lors de la deuxième campagne d’agrandissement.
 En 1664, les jardins évoluèrent à un tel point que Louis XIV les inaugura lors d'une fête galante dite des Plaisirs de  l’Isle Enchantée. L'événement, qui célébrait officiellement sa mère, Anne d'Autriche, et son épouse, Marie-Thérèse d’Autriche, célébrait en réalité Louise de La Vallière, la maîtresse du roi. Il eut lieu en mai de cette même année. Les invités se régalèrent des divertissements fabuleux donnés dans les jardins durant une semaine. En raison de cette fête – et en particulier du manque de logements pour les invités (la plupart d'entre eux furent obligés de dormir dans leurs carrosses) –, Louis se rendit compte des imperfections de Versailles et commença de nouveau à agrandir le château et les jardins.
-Louis XIV : deuxième agrandissement
-De 1665 à 1678, il y eut une frénésie d’activité dans les jardins, surtout autour des fontaines et des nouveaux bosquets. À cette époque, la symbolique d’Apollon et celle du soleil furent exploitées consciemment et systématiquement comme métaphores pour Louis XIV. L’enveloppement du vieux château, par Louis Le Vau, fournit un moyen par lequel – à travers la décoration de la façade du jardin – la symbolique des grands appartements entra en symbiose avec la symbolique des jardins.
-Avec cette 2e phase d’agrandissement, les jardins adoptèrent le vocabulaire de conception topographique et symbolique qui resterait paradigmatique jusqu’au XVIIIe siècle. Comme le précisa André Félibien dans sa description de Versailles, une symbolique consacrée aux thèmes solaires et apolloniens prédominait dans les projets de construction à cette époque[2].
-Trois additions datant de cette époque contribuèrent au réseau topographique et symbolique des jardins : l’achèvement de la grotte de Thétys, le parterre de Latone et le bassin d’Apollon.
-Grotte de Téthys
-Débutée en 1664 et achevée en 1670, avec l’installation de statues par Girardon et Regnaudin, Gilles Guérin et les frères Marsy, la grotte devint un élément principal des jardins, en raison de sa symbolique et du rôle technique du bâtiment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>De 1665 à 1678, il y eut une frénésie d’activité dans les jardins, surtout autour des fontaines et des nouveaux bosquets. À cette époque, la symbolique d’Apollon et celle du soleil furent exploitées consciemment et systématiquement comme métaphores pour Louis XIV. L’enveloppement du vieux château, par Louis Le Vau, fournit un moyen par lequel – à travers la décoration de la façade du jardin – la symbolique des grands appartements entra en symbiose avec la symbolique des jardins.
+Avec cette 2e phase d’agrandissement, les jardins adoptèrent le vocabulaire de conception topographique et symbolique qui resterait paradigmatique jusqu’au XVIIIe siècle. Comme le précisa André Félibien dans sa description de Versailles, une symbolique consacrée aux thèmes solaires et apolloniens prédominait dans les projets de construction à cette époque.
+Trois additions datant de cette époque contribuèrent au réseau topographique et symbolique des jardins : l’achèvement de la grotte de Thétys, le parterre de Latone et le bassin d’Apollon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Grotte de Téthys</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Débutée en 1664 et achevée en 1670, avec l’installation de statues par Girardon et Regnaudin, Gilles Guérin et les frères Marsy, la grotte devint un élément principal des jardins, en raison de sa symbolique et du rôle technique du bâtiment.
 Symboliquement, la grotte de Téthys faisait allusion au mythe d’Apollon où, selon les Grecs, le dieu se reposait après avoir conduit son char, afin d’illuminer le ciel. La grotte était un bâtiment isolé, situé au nord du château. L’intérieur, décoré avec des motifs en coquillage afin de donner l'impression d'une grotte marine, comprenait un ensemble de statues qui représentait le dieu Soleil, soigné par des Néréides (le groupe central) et ses chevaux, soignés par des gardiens de Téthys (les deux groupes auxiliaires). À l'origine, les statues étaient disposées en trois niches dans la grotte et entourées par des fontaines et jets d’eau.
 Techniquement, la grotte de Téthys joua un rôle crucial dans le système hydraulique qui fournissait l’eau aux jardins. Le toit de la grotte soutenait un réservoir qui gardait l’eau, pompée de l'étang de Clagny, afin d’alimenter par gravité les fontaines des jardins.
-Bassin de Latone (mère d'Apollon)
-Situé sur l’axe est-ouest, un peu à l'ouest et sous le parterre d’Eau, se trouvait le premier bassin de Latone. Conçu par  André Le Nôtre et construit entre 1668 et 1670, la fontaine représentait un épisode tiré des « Métamorphoses » d’Ovide. Latone et ses enfants, Apollon et Diane, en haut du bassin, étaient tourmentés par des jets de boue lancés par des paysans Lyciens, qui refusaient de leur permettre de boire à leur étang. Elle fit appel à Zeus qui répondit en transformant les Lyciens en grenouilles. On choisit cet épisode mythologique en raison de l'allusion aux révoltes de la Fronde, qui éclatèrent pendant la minorité de Louis XIV[3].
-Bassin d’Apollon
-Un peu plus loin sur l’axe est-ouest, se trouvait le bassin d'Apollon (bassin des chars d'Apollon émergeant des eaux). Occupant l’ancien emplacement du Rondeau (également dit bassin des Cygnes) de Louis XIII, la fontaine d’Apollon, qui fut construite entre 1668-1671, représentait le dieu conduisant son char afin d’illuminer le ciel. Le bassin et la fontaine formaient un point de convergence dans les jardins et servaient d'élément transitionnel entre les jardins du Petit Parc et le Grand Canal.
-Grand Canal
-Avec une longueur de 1 500 mètres et une largeur de 62 mètres, le Grand Canal, qui fut construit entre 1668 et 1671, prolonge physiquement et visuellement l’axe est-ouest jusqu'à l'enceinte du Petit Parc. Sous l’Ancien Régime, le Grand Canal était utilisé pour des divertissements en bateaux. En 1674, à la suite d’une série de négociations diplomatiques réussies, Louis XIV commanda la construction de la « Petite Venise ». Située à la jonction du bras transversal septentrional du Grand Canal, celle-ci abritait les yachts et les Caravelles reçus des Pays-Bas et hébergeait les gondoliers et leurs gondoles, reçus comme cadeaux de la part du doge de Venise, d'où l’origine du nom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bassin de Latone (mère d'Apollon)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé sur l’axe est-ouest, un peu à l'ouest et sous le parterre d’Eau, se trouvait le premier bassin de Latone. Conçu par  André Le Nôtre et construit entre 1668 et 1670, la fontaine représentait un épisode tiré des « Métamorphoses » d’Ovide. Latone et ses enfants, Apollon et Diane, en haut du bassin, étaient tourmentés par des jets de boue lancés par des paysans Lyciens, qui refusaient de leur permettre de boire à leur étang. Elle fit appel à Zeus qui répondit en transformant les Lyciens en grenouilles. On choisit cet épisode mythologique en raison de l'allusion aux révoltes de la Fronde, qui éclatèrent pendant la minorité de Louis XIV.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bassin d’Apollon</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un peu plus loin sur l’axe est-ouest, se trouvait le bassin d'Apollon (bassin des chars d'Apollon émergeant des eaux). Occupant l’ancien emplacement du Rondeau (également dit bassin des Cygnes) de Louis XIII, la fontaine d’Apollon, qui fut construite entre 1668-1671, représentait le dieu conduisant son char afin d’illuminer le ciel. Le bassin et la fontaine formaient un point de convergence dans les jardins et servaient d'élément transitionnel entre les jardins du Petit Parc et le Grand Canal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Grand Canal</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec une longueur de 1 500 mètres et une largeur de 62 mètres, le Grand Canal, qui fut construit entre 1668 et 1671, prolonge physiquement et visuellement l’axe est-ouest jusqu'à l'enceinte du Petit Parc. Sous l’Ancien Régime, le Grand Canal était utilisé pour des divertissements en bateaux. En 1674, à la suite d’une série de négociations diplomatiques réussies, Louis XIV commanda la construction de la « Petite Venise ». Située à la jonction du bras transversal septentrional du Grand Canal, celle-ci abritait les yachts et les Caravelles reçus des Pays-Bas et hébergeait les gondoliers et leurs gondoles, reçus comme cadeaux de la part du doge de Venise, d'où l’origine du nom.
 Au-delà des exigences décoratives et ludiques de l'aspect du jardin, le Grand Canal jouait également un rôle pratique. En effet, situé à un point bas dans les jardins, le Grand Canal recevait l’eau qui s’écoulait des fontaines en amont. Cette eau était alors pompée grâce à un réseau de pompes actionnées par des moulins à vent ou à chevaux, puis renvoyée au réservoir placé sur le toit de la grotte de Téthys, afin de réalimenter les fontaines. Le système hydraulique fonctionnait alors en circuit fermé.
-Parterre d’Eau
-Au-dessus de la fontaine de Latone, se trouve la terrasse du château, dite le parterre d’Eau[4]. Formant un élément transitionnel sur l’axe est-ouest entre le château et les jardins en contrebas, le parterre d’eau se manifeste comme lieu où la symbolique des grands appartements se réunit avec celle des jardins[5]. Sous le parterre, des réservoirs de stockage permettent l'alimentation des bassins et fontaines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Parterre d’Eau</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Au-dessus de la fontaine de Latone, se trouve la terrasse du château, dite le parterre d’Eau. Formant un élément transitionnel sur l’axe est-ouest entre le château et les jardins en contrebas, le parterre d’eau se manifeste comme lieu où la symbolique des grands appartements se réunit avec celle des jardins. Sous le parterre, des réservoirs de stockage permettent l'alimentation des bassins et fontaines.
 En 1674, Louis XIV commanda un ensemble de statues, à l'origine prévues comme éléments décoratifs pour les fontaines du parterre d’Eau. La « Grande Commande » se composait de 24 statues représentant les quaternités classiques. Conçue par Charles Le Brun et exécutée par les meilleurs sculpteurs de l’époque, la Grande Commande comprenait :
 les quatre éléments : la Terre, l’Air, l’Eau, le Feu ;
 les quatre parties du monde  l’Europe, l’Afrique, l’Asie, l’Amérique ;
@@ -557,16 +838,131 @@
 l'Enlèvement d'Orithye par Borée, de Gaspard Marsy et Anselme Flamen, allégorie de l'Air ;
 l'Enlèvement de Cybèle par Saturne, de Thomas Regnaudin, allégorie de la Terre ;
 l'Enlèvement de Proserpine par Pluton, de François Girardon, allégorie du Feu.
-Finalement, l’ensemble de ces statues fut dispersé dans le jardin et le parterre d'eau agrémenté de statues représentant les quatre grands fleuves français et leur principal affluent, ainsi que des groupes de figures.
-Bassin de Neptune
-En 1676, le bassin des Sapins[réf. souhaitée], qui se situait au nord du château, sous le parterre du Nord et l'allée des Marmousets[6], fut conçu sur l’axe nord-sud comme un pendant à la pièce d’eau des Suisses, située au pied de la colline de Satory, au sud du château. Plus tard, des changements transformèrent le bassin des Sapins en bassin de Neptune.
+Finalement, l’ensemble de ces statues fut dispersé dans le jardin et le parterre d'eau agrémenté de statues représentant les quatre grands fleuves français et leur principal affluent, ainsi que des groupes de figures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Bassin de Neptune</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En 1676, le bassin des Sapins[réf. souhaitée], qui se situait au nord du château, sous le parterre du Nord et l'allée des Marmousets, fut conçu sur l’axe nord-sud comme un pendant à la pièce d’eau des Suisses, située au pied de la colline de Satory, au sud du château. Plus tard, des changements transformèrent le bassin des Sapins en bassin de Neptune.
 En 1679, le bassin est creusé et en 1682, les premiers vases sont mis en place. Les eaux y jouent pour la première fois en mai 1685.
 Ce n'est que sous Louis XV, que seront installés les deux dragons, ainsi que les groupes sculptés de Neptune et Amphitrite.
-Pour dix minutes de spectacles, la consommation d'eau est de 2 000 m3.
-Pièce d’eau des Suisses
-Creusée en 1678, la pièce d’eau des Suisses – nommée d'après les Gardes suisses qui la creusèrent – se situait dans une région marécageuse, au sud du château. Cet élément d’eau, d'une superficie supérieure à 15 hectares, est le plus vaste à Versailles, après le Grand Canal.
-La perfection des bosquets
-Un des plus remarquables aspects des jardins du deuxième agrandissement, est le foisonnement des bosquets. Agrandissant le dispositif établi lors de la première campagne d’agrandissement, Le Nôtre ajouta ou agrandit pas moins de dix bosquets. La chronologie se présente comme suit :
+Pour dix minutes de spectacles, la consommation d'eau est de 2 000 m3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pièce d’eau des Suisses</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Creusée en 1678, la pièce d’eau des Suisses – nommée d'après les Gardes suisses qui la creusèrent – se situait dans une région marécageuse, au sud du château. Cet élément d’eau, d'une superficie supérieure à 15 hectares, est le plus vaste à Versailles, après le Grand Canal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Louis XIV : deuxième agrandissement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>La perfection des bosquets</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un des plus remarquables aspects des jardins du deuxième agrandissement, est le foisonnement des bosquets. Agrandissant le dispositif établi lors de la première campagne d’agrandissement, Le Nôtre ajouta ou agrandit pas moins de dix bosquets. La chronologie se présente comme suit :
 1670
 Bosquet du Marais
 1671
@@ -583,53 +979,439 @@
 1678
 Bosquet des Sources
 Outre l’agrandissement des bosquets existants et la construction des nouveaux, deux projets supplémentaires se précisèrent à cette époque : le bassin des Sapines et la pièce d’Eau des Suisses.
-Louis XIV : troisième agrandissement
-À peine fut aménagé le deuxième agrandissement, que Louis XIV commanda de nouveaux agrandissements du château et des jardins. Alors que le deuxième agrandissement se caractérise par un foisonnement des bosquets, le troisième se distingue par un changement stylistique, opposant l’esthétique naturelle d'André Le Nôtre à l’esthétique architectonique de Jules Hardouin-Mansart.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Louis XIV : troisième agrandissement</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>À peine fut aménagé le deuxième agrandissement, que Louis XIV commanda de nouveaux agrandissements du château et des jardins. Alors que le deuxième agrandissement se caractérise par un foisonnement des bosquets, le troisième se distingue par un changement stylistique, opposant l’esthétique naturelle d'André Le Nôtre à l’esthétique architectonique de Jules Hardouin-Mansart.
 Les changements topologiques qui se produisent à cette époque sont :
 1680
 Tapis vert – La superficie étendue de pelouse entre le bassin de Latone et le bassin d’Apollon atteint sa définition finale à cette époque, sous la direction d’André Le Nôtre.
 1684
 Le parterre d’Eau – Sous la direction de Jules Hardouin-Mansart, le parterre d’eau est remanié. Les statues de la Grande Commande sont déplacées ailleurs dans les jardins. Les deux bassins octogonaux qu’on y trouve aujourd’hui furent construits et décorés à cette époque, avec des statues en bronze représentant les fleuves de France.
-L’Orangerie – Au sud du parterre d’Eau, l’orangerie de Louis Le Vau est détruite, afin d’adapter l’endroit pour une nouvelle structure, conçue par Hardouin-Mansart[7]. Outre l’Orangerie, l’Escalier des Cent Marches, qui facilite l'accès aux jardins du sud et à la pièce d’eau des Suisses, et le parterre du Midi sont conçus et construits à cette époque, donnant aux jardins sud du château leur configuration et leur décoration actuelles.
+L’Orangerie – Au sud du parterre d’Eau, l’orangerie de Louis Le Vau est détruite, afin d’adapter l’endroit pour une nouvelle structure, conçue par Hardouin-Mansart. Outre l’Orangerie, l’Escalier des Cent Marches, qui facilite l'accès aux jardins du sud et à la pièce d’eau des Suisses, et le parterre du Midi sont conçus et construits à cette époque, donnant aux jardins sud du château leur configuration et leur décoration actuelles.
 Cette même année, la grotte de Thétys est détruite, préalablement à la construction de l’Aile des Nobles.
 1685-1686
 Avec la construction de l’aile nord du château, le parterre nord est remanié, afin de répondre à la nouvelle architecture de cette partie du château. Pour compenser la perte du réservoir de la grotte de Thétys et satisfaire les demandes accrues en eau, Jules Hardouin-Mansart conçoit de nouveaux réservoirs, plus grands, au nord de l’aile des Nobles.
 1686-1687
-Sous la direction de Jules Hardouin-Mansart, le bassin de Latone est remanié. C’est son œuvre que l’on peut aujourd’hui admirer.
-Bosquets du troisième agrandissement
-Lors du troisième agrandissement, trois bosquets conséquents sont conçus ou remaniés :
+Sous la direction de Jules Hardouin-Mansart, le bassin de Latone est remanié. C’est son œuvre que l’on peut aujourd’hui admirer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Louis XIV : troisième agrandissement</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Bosquets du troisième agrandissement</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lors du troisième agrandissement, trois bosquets conséquents sont conçus ou remaniés :
 1680
 La Galerie des Antiques – Conçue en lieu et place du bosquet antérieur (et de courte longévité) de la Galerie d’Eau (1678). Le bosquet est pensé comme un genre de galerie à ciel ouvert, dans laquelle étaient exposées des statues antiques et des copies, acquises par l’Académie de Rome.
 1681-1683
 La salle de Bal – Construite dans une partie isolée des jardins, dans laquelle une cascade – l’unique exemplaire survivant à Versailles – formait le décor de ce bosquet, elle servait aux divertissements consacrés à la danse.
 1684-85
-La Colonnade – De Jules Hardouin-Mansart, elle est dressée à l'emplacement du Bosquet des Sources, d’André Le Nôtre. Ce péristyle circulaire, formé de 32 arcs, avec 28 fontaines, est l’expression la plus architectonique d’Hardouin-Mansart à Versailles.
-Louis XIV : quatrième agrandissement
-Peu après la promulgation des traités de Ryswick en 1697, qui mirent fin à la guerre de la Ligue d'Augsbourg, Louis XIV et la France y furent confrontés à nouveau, au détriment de Versailles. En effet, la guerre de Succession d’Espagne diminua l’attention de Louis XIV pour Versailles : jusqu’en 1704, aucune modification importante des jardins ne fut réalisée. Entre 1704 et 1709, des bosquets furent remaniés – certains assez radicalement –, parfois même renommés, suggérant la nouvelle austérité qui caractérisa les dernières années du règne de Louis XIV.
+La Colonnade – De Jules Hardouin-Mansart, elle est dressée à l'emplacement du Bosquet des Sources, d’André Le Nôtre. Ce péristyle circulaire, formé de 32 arcs, avec 28 fontaines, est l’expression la plus architectonique d’Hardouin-Mansart à Versailles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Louis XIV : quatrième agrandissement</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu après la promulgation des traités de Ryswick en 1697, qui mirent fin à la guerre de la Ligue d'Augsbourg, Louis XIV et la France y furent confrontés à nouveau, au détriment de Versailles. En effet, la guerre de Succession d’Espagne diminua l’attention de Louis XIV pour Versailles : jusqu’en 1704, aucune modification importante des jardins ne fut réalisée. Entre 1704 et 1709, des bosquets furent remaniés – certains assez radicalement –, parfois même renommés, suggérant la nouvelle austérité qui caractérisa les dernières années du règne de Louis XIV.
 Le 1er septembre 1715, Louis XIV mourut à Versailles et son arrière-petit-fils de 5 ans lui succéda, sous le nom de Louis XV. Une fois la dépouille mortelle du Roi Soleil enlevée pour son enterrement à Saint-Denis, Louis XV, sous la protection du régent, Philippe II d’Orléans, et la cour se retirèrent à Vincennes. L’avenir de Versailles entra dans une ère d’incertitude.
-Louis XV
-En 1722, Louis XV et la cour retournèrent à Versailles. Semblant prêter attention à l’admonestation de son arrière-grand-père de ne pas s’engager dans des campagnes de construction coûteuse, Louis XV évita les projets tels qu'en avait fait exécuter Louis XIV. Les seuls projets d'ampleur de Louis XV dans le château furent l’achèvement du salon d’Hercule (1736), l’Opéra (1770) et la redécoration des Petits Appartements du Roi. Aux jardins, le seul agrandissement notable fut l’achèvement du bassin de Neptune, avec l’addition des statues (1738-1741).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Louis XV</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>En 1722, Louis XV et la cour retournèrent à Versailles. Semblant prêter attention à l’admonestation de son arrière-grand-père de ne pas s’engager dans des campagnes de construction coûteuse, Louis XV évita les projets tels qu'en avait fait exécuter Louis XIV. Les seuls projets d'ampleur de Louis XV dans le château furent l’achèvement du salon d’Hercule (1736), l’Opéra (1770) et la redécoration des Petits Appartements du Roi. Aux jardins, le seul agrandissement notable fut l’achèvement du bassin de Neptune, avec l’addition des statues (1738-1741).
 Plutôt que de dépenser des ressources à la modification des jardins, Louis XV – un botaniste avide – consacra ses efforts à Trianon. Dans le secteur maintenant occupé par le Hameau de la reine, Louis XV fit installer et entretenir des jardins botaniques. En 1750, année de création des jardins botaniques, Claude Richard (1705-1784) – le Jardinier-Fleuriste – prit en charge l’administration de ces jardins.
-En 1761, Louis XV passa commande à Ange-Jacques Gabriel, de l'édification du Petit Trianon, en tant que résidence qui lui permettrait de passer plus de temps près de ses jardins botaniques. Ce fut au Petit Trianon que Louis XV contracta la petite vérole. Le 10 mai 1774, Louis XV mourut à Versailles, mais le château et ses jardins entrèrent bientôt dans une nouvelle ère de changement[8].
-Louis XVI
-Avec l’avènement de Louis XVI, les jardins subirent des transformations évoquant le quatrième agrandissement de Louis XIV. Engendré par les Philosophes – et surtout les rationalisations de Jean-Jacques Rousseau – l’hiver de 1774-1775 vit une replantation totale des jardins. Des arbres et des arbustes datant du règne de Louis XIV furent abattus ou déracinés avec l’intention de transformer les jardins français de Le Nôtre et Hardouin-Mansart en jardins à l'anglaise.
+En 1761, Louis XV passa commande à Ange-Jacques Gabriel, de l'édification du Petit Trianon, en tant que résidence qui lui permettrait de passer plus de temps près de ses jardins botaniques. Ce fut au Petit Trianon que Louis XV contracta la petite vérole. Le 10 mai 1774, Louis XV mourut à Versailles, mais le château et ses jardins entrèrent bientôt dans une nouvelle ère de changement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Louis XVI</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec l’avènement de Louis XVI, les jardins subirent des transformations évoquant le quatrième agrandissement de Louis XIV. Engendré par les Philosophes – et surtout les rationalisations de Jean-Jacques Rousseau – l’hiver de 1774-1775 vit une replantation totale des jardins. Des arbres et des arbustes datant du règne de Louis XIV furent abattus ou déracinés avec l’intention de transformer les jardins français de Le Nôtre et Hardouin-Mansart en jardins à l'anglaise.
 La tentative de Le Nôtre pour convertir à l’anglaise son précédent chef-d’œuvre n'aboutit cependant pas. En raison de la topologie du domaine, la transformation à l'anglaise des jardins – caractérisée par une topologie et des formes irrégulières, véritable antithèse aux jardins à la française – fut abandonnée et les jardins replantés à la française. Cependant, Louis XVI, tout en gardant un œil sur les dépenses à Versailles, fit retirer les palissades qui formaient alors les « murs » des salles vertes des bosquets et les fit remplacer par des tilleuls ou des marronniers. Par ailleurs, certains bosquets, datant de l’époque du Roi Soleil, furent radicalement modifiés ou détruits définitivement. La contribution aux jardins la plus importante pendant le règne de Louis XVI fut la création de la grotte des Bains d’Apollon. La grotte en rocaille, placée dans un bosquet à l’anglaise et qui hébergeait les statues provenant de la grotte de Thétys, devint le chef-d’œuvre de Hubert Robert.
 Avec le départ de la famille royale de Versailles le 7 octobre 1789, le sort du château et des jardins fut loin d'être certain.
-La Révolution
-En 1792, par ordre de la Convention nationale, certains arbres des jardins furent abattus, alors que certaines parties du Grand Parc étaient vendues. Entrevoyant une menace potentielle sur les jardins de Versailles, Louis Claude Marie Richard (1754-1821) – directeur des jardins botaniques et petit-fils de Claude Richard – fit pression sur le gouvernement révolutionnaire afin de sauvegarder les jardins. Il y parvint en empêchant un morcellement plus poussé du Grand Parc, et les menaces de destruction du Petit Parc furent levées par des recommandations, permettant que les parterres puissent être replantés en potagers, et les vergers transformés en espaces publics. Heureusement, ces plans ne virent jamais le jour, mais les jardins s’ouvrirent à tous. Il ne fut pas rare alors de voir des gens occupés à faire leur lessive dans les fontaines, le linge étalé sur des arbustes pour sécher.
-Napoléon Ier
-L’ère napoléonienne ignora globalement Versailles. Dans le château, un appartement fut néanmoins aménagé pour l’impératrice Marie-Louise, tandis que dans les jardins, seul un abattage catastrophique des arbres aux bosquets de l’Arc de Triomphe et des Trois-Fontaines fut notable. À la suite de l’érosion massive du sol, il fut malgré tout nécessaire de replanter de nouveaux arbres.
-La Restauration
-Avec la chute du Premier Empire et la Restauration des Bourbons, en 1814, les jardins de Versailles virent les premières modifications importantes depuis la Révolution. En 1817, Louis XVIII ordonna que deux bosquets – le bosquet de l’Île du Roi et le Miroir d’Eau – fussent transformés en jardin à l’anglaise, pour devenir Le Jardin du Roi.
-La monarchie de Juillet et le Second Empire
-Bien que beaucoup des intérieurs du château furent irrémédiablement remaniés, afin d’installer le musée de l’Histoire de France de Louis-Philippe, les jardins, quant à eux, restèrent quasiment inchangés. Pour la visite d’État de la reine Victoria et du prince Albert en 1855, les jardins furent transformés pour accueillir une fête qui évoquait celles de Louis XIV. Napoléon III abandonna tout simplement Versailles, lui préférant le château de Compiègne.
-Pierre de Nolhac
-Avec l’avènement de Pierre de Nolhac comme directeur du musée, une nouvelle ère de recherches historiques démarra à Versailles. Nolhac, archiviste avide et homme de lettres, commença à reconstituer l’histoire de Versailles, en conséquence de quoi il établit les critères à respecter par les projets de restauration et de préservation du château et des jardins. Ces critères sont toujours appliqués de nos jours.
-Les bosquets et « l’affaire de l’Apollon Perigrinator »
-L’étude des bosquets de Versailles pose problème en raison des nombreux remaniements des jardins entre le XVIIe siècle et le XIXe siècle[9]. « L’affaire de l’Apollon Perigrinator » est une preuve des changements – parfois radicaux – des bosquets[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>La Révolution</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1792, par ordre de la Convention nationale, certains arbres des jardins furent abattus, alors que certaines parties du Grand Parc étaient vendues. Entrevoyant une menace potentielle sur les jardins de Versailles, Louis Claude Marie Richard (1754-1821) – directeur des jardins botaniques et petit-fils de Claude Richard – fit pression sur le gouvernement révolutionnaire afin de sauvegarder les jardins. Il y parvint en empêchant un morcellement plus poussé du Grand Parc, et les menaces de destruction du Petit Parc furent levées par des recommandations, permettant que les parterres puissent être replantés en potagers, et les vergers transformés en espaces publics. Heureusement, ces plans ne virent jamais le jour, mais les jardins s’ouvrirent à tous. Il ne fut pas rare alors de voir des gens occupés à faire leur lessive dans les fontaines, le linge étalé sur des arbustes pour sécher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Napoléon Ier</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+L’ère napoléonienne ignora globalement Versailles. Dans le château, un appartement fut néanmoins aménagé pour l’impératrice Marie-Louise, tandis que dans les jardins, seul un abattage catastrophique des arbres aux bosquets de l’Arc de Triomphe et des Trois-Fontaines fut notable. À la suite de l’érosion massive du sol, il fut malgré tout nécessaire de replanter de nouveaux arbres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>La Restauration</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec la chute du Premier Empire et la Restauration des Bourbons, en 1814, les jardins de Versailles virent les premières modifications importantes depuis la Révolution. En 1817, Louis XVIII ordonna que deux bosquets – le bosquet de l’Île du Roi et le Miroir d’Eau – fussent transformés en jardin à l’anglaise, pour devenir Le Jardin du Roi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>La monarchie de Juillet et le Second Empire</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que beaucoup des intérieurs du château furent irrémédiablement remaniés, afin d’installer le musée de l’Histoire de France de Louis-Philippe, les jardins, quant à eux, restèrent quasiment inchangés. Pour la visite d’État de la reine Victoria et du prince Albert en 1855, les jardins furent transformés pour accueillir une fête qui évoquait celles de Louis XIV. Napoléon III abandonna tout simplement Versailles, lui préférant le château de Compiègne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pierre de Nolhac</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec l’avènement de Pierre de Nolhac comme directeur du musée, une nouvelle ère de recherches historiques démarra à Versailles. Nolhac, archiviste avide et homme de lettres, commença à reconstituer l’histoire de Versailles, en conséquence de quoi il établit les critères à respecter par les projets de restauration et de préservation du château et des jardins. Ces critères sont toujours appliqués de nos jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Les bosquets et « l’affaire de l’Apollon Perigrinator »</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’étude des bosquets de Versailles pose problème en raison des nombreux remaniements des jardins entre le XVIIe siècle et le XIXe siècle. « L’affaire de l’Apollon Perigrinator » est une preuve des changements – parfois radicaux – des bosquets.
 En 1664, au nord du château, la grotte de Téthys fut construite comme élément technique et symbolique des jardins. Techniquement, la grotte, avec son réservoir, fournissait une partie de l’eau exigée par le fonctionnement des fontaines des jardins ; symboliquement, la grotte faisait le rapprochement entre le mythe d’Apollon et l'image publique de Louis XIV. La caractéristique principale de la décoration de la grotte était les groupes de statues d’Apollon et de ses chevaux, qui furent installés en 1672. Lorsqu’en 1684, la grotte fut détruite en prévision de la construction de l’aile des Nobles, les groupes sculptés furent replacés au « bosquet de la Renommée ».
 Construit en 1675, ce bosquet comprenait une fontaine formée par une statue représentant la Renommée – d'où son nom. 
-En 1684, il fut remanié afin d'accueillir les statues provenant de la grotte de Téthys. La statue de la Renommée fut retirée, celles d'Apollon et de ses chevaux placées sur des socles dont jaillissait de l’eau. Chaque groupe de statues était protégé par un baldaquin doré et finement ouvré. L'endroit ainsi réaménagé prit le nom de « bosquet des Bains d’Apollon »[11] (à ne pas confondre avec l'actuel bosquet des Bains d'Apollon postérieurement nommé[12]).
+En 1684, il fut remanié afin d'accueillir les statues provenant de la grotte de Téthys. La statue de la Renommée fut retirée, celles d'Apollon et de ses chevaux placées sur des socles dont jaillissait de l’eau. Chaque groupe de statues était protégé par un baldaquin doré et finement ouvré. L'endroit ainsi réaménagé prit le nom de « bosquet des Bains d’Apollon » (à ne pas confondre avec l'actuel bosquet des Bains d'Apollon postérieurement nommé).
 Le dernier déplacement du groupement d’Apollon date de 1778. 
 Au début de son règne, Louis XVI ordonna un remaniement des jardins. Le bosquet du Marais, situé près du parterre de Latone, fut entièrement retravaillé pour accueillir ces statues de prestige. Hubert Robert conçut pour elles une grotte artificielle, au milieu d'un paysage verdoyant parsemé de cascades et petits bassins d’eau, dans le style anglo-chinois alors à la mode. Le bosquet du Marais devint alors le bosquet des Bains d’Apollon.
 C'est dans ce chef-d’œuvre d’Hubert Robert qu'Apollon Perigrinator arriva en 1778, et c’est encore son emplacement d'aujourd’hui.
@@ -637,124 +1419,503 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jardin_de_Versailles</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Liste des bosquets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les deux bosquets symétriques : le bosquet du Dauphin et le bosquet de la Girandole
-1663
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Les deux bosquets symétriques : le bosquet du Dauphin et le bosquet de la Girandole</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1663
 Situés au nord et au sud de l’axe est-ouest, ces deux bosquets sont à l’origine conçus comme un réseau de chemins autour de quatre « salles de verdure », qui convergent vers une salle centrale, accueillant une fontaine.
 1682
 Le bosquet sud devient le bosquet de la Girandole, ainsi nommé en raison de la fontaine centrale et des jets d'eau qui jaillissent en rayonnant tout autour.
 1696
 Le bosquet nord devient le bosquet du Dauphin, en raison de la fontaine centrale en forme de dauphin.
 1775
-Les deux bosquets sont détruits pour faire place à des espaces plus ouverts. À cette époque, ils sont rebaptisés le quinconce du Nord et quinconce du Midi[13].
+Les deux bosquets sont détruits pour faire place à des espaces plus ouverts. À cette époque, ils sont rebaptisés le quinconce du Nord et quinconce du Midi.
 2000
-Les deux bosquets sont restitués suite à l'ouverture progressive des bosquets au public.
-Bosquet des Dômes
-1675
+Les deux bosquets sont restitués suite à l'ouverture progressive des bosquets au public.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bosquet des Dômes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1675
 Conçu par André Le Nôtre et initialement caractérisé par une statue de la renommée, donnant alors son nom au bosquet.
 1684
 Réaménagement du bosquet avec l’installation des statues provenant de la grotte de Thétys. Le bosquet est rebaptisé bosquet des Bains d’Apollon.
 1700
-Au début du XVIIIe siècle, les statues du Bosquet des Bains d’Apollon sont déménagées une fois de plus, à l’emplacement de l’ancien Bosquet du Marais (actuellement la Grotte des Bains d’Apollon). L’ancien Bosquet des Bains d’Apollon est quant à lui complètement réaménagé, avec deux pavillons en calotte du dôme, qui lui donnèrent son nom : Bosquet des Dômes.
-Bosquet du Labyrinthe (disparu)
-1665
-André Le Nôtre conçoit, au sud du parterre de Latone, près de l’orangerie, un labyrinthe, composé d’un réseau de chemins simples[14].
+Au début du XVIIIe siècle, les statues du Bosquet des Bains d’Apollon sont déménagées une fois de plus, à l’emplacement de l’ancien Bosquet du Marais (actuellement la Grotte des Bains d’Apollon). L’ancien Bosquet des Bains d’Apollon est quant à lui complètement réaménagé, avec deux pavillons en calotte du dôme, qui lui donnèrent son nom : Bosquet des Dômes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bosquet du Labyrinthe (disparu)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1665
+André Le Nôtre conçoit, au sud du parterre de Latone, près de l’orangerie, un labyrinthe, composé d’un réseau de chemins simples.
 1672-1677
-Charles Perrault, auteur des Contes de ma mère l’Oye, conseille à Louis XIV de repenser le Labyrinthe de manière à servir à l’éducation du dauphin[15]. Par conséquent, le nouveau Labyrinthe s'enrichit de plusieurs fontaines représentant des textes tirés des fables d'Ésope.
+Charles Perrault, auteur des Contes de ma mère l’Oye, conseille à Louis XIV de repenser le Labyrinthe de manière à servir à l’éducation du dauphin. Par conséquent, le nouveau Labyrinthe s'enrichit de plusieurs fontaines représentant des textes tirés des fables d'Ésope.
 Une plaque de cuivre, sur laquelle était gravée une de ses fables, fut présentée avec La Fontaine. C'est grâce à ces plaques que le fils de Louis XIV apprit à lire. Une fois achevé, en 1677, le Labyrinthe était composé de 39 fontaines, avec 333 sculptures animalières en plomb, peintes en polychrome.
 1778
-En raison des frais de réparation et d’entretien du bosquet, Louis XVI commande la destruction du Labyrinthe. À sa place, un arboretum, avec des exemplaires exotiques, est installé en un jardin à l'anglaise. Rebaptisé « bosquet de la Reine », ce serait dans cette partie des jardins qu’en 1785, un épisode de l’affaire du collier aurait eu lieu, compromettant par la suite Marie-Antoinette[16].
-Bosquet de l'Étoile (partiellement disparu)
-1666
+En raison des frais de réparation et d’entretien du bosquet, Louis XVI commande la destruction du Labyrinthe. À sa place, un arboretum, avec des exemplaires exotiques, est installé en un jardin à l'anglaise. Rebaptisé « bosquet de la Reine », ce serait dans cette partie des jardins qu’en 1785, un épisode de l’affaire du collier aurait eu lieu, compromettant par la suite Marie-Antoinette.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bosquet de l'Étoile (partiellement disparu)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1666
 À l’origine, André Le Nôtre conçoit ce bosquet comme une salle de verdure avec un chemin qui entoure un espace octogonal, au milieu du bosquet.
 1671
 Un chemin plus complexe est développé, afin de rehausser la nouvelle fontaine centrale. Il devint le bosquet de la montagne d'Eau.
 1704
-Le bosquet de la Montagne d’Eau est remanié, les bassins remplacés par des sculptures et finalement rebaptisé bosquet de l’Étoile[13],[17].
+Le bosquet de la Montagne d’Eau est remanié, les bassins remplacés par des sculptures et finalement rebaptisé bosquet de l’Étoile,.
 1799 - 2007
-Les statues sont progressivement déposées, les treillages centraux sont retirés au XXe siècle. Le bosquet, le plus dépouillé des jardins, accueille périodiquement des manifestations artistiques.
-Bosquet du Marais (remplacé)
-1670
+Les statues sont progressivement déposées, les treillages centraux sont retirés au XXe siècle. Le bosquet, le plus dépouillé des jardins, accueille périodiquement des manifestations artistiques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bosquet du Marais (remplacé)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1670
 Au début, le bosquet se compose d'un bassin rectangulaire avec une bordure en gazon. Au bord du bassin, des roseaux en métal cachent bon nombre de jets d’eau. Un cygne se trouve à chaque coin, un jet d’eau jaillissant de leur bec. Au milieu du bassin se trouve un arbre en fer, avec des feuilles en étain, peintes en vert. Cet arbre est à l'origine d'un autre nom donné au bosquet : le bosquet du Chêne-Vert.
 1705
 La fontaine est détruite et le bosquet transformé en celui des Bains d’Apollon.
 1774
-Hubert Robert remanie le bosquet, qui est rebaptisé La grotte des Bains d’Apollon[13].
-Île du Roi - Miroir d’Eau (partiellement remplacé)
-1671
+Hubert Robert remanie le bosquet, qui est rebaptisé La grotte des Bains d’Apollon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Île du Roi - Miroir d’Eau (partiellement remplacé)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1671
 Au début conçu comme deux éléments du jardin, le grand – L'île du Roi – comprend une île qui forme le point de convergence d’un système complexe de fontaines. L’île du Roi est isolée du miroir d’eau par une chaussée qui comprend 24 jets d’eau.
 1684
 L’île est supprimée et le nombre de jets d’eau dans le bosquet radicalement réduit.
 1704
 La chaussée est remaniée et un grand nombre des jets d’eau disparaît encore.
 1817
-L'espace de l’île du Roi est complètement réaménagées en un jardin à l'anglaise. Le bosquet est rebaptisé Jardin du Roi[13].
-Salle des Festins (ou salle du Conseil) – bosquet de l’Obélisque
-1671
+L'espace de l’île du Roi est complètement réaménagées en un jardin à l'anglaise. Le bosquet est rebaptisé Jardin du Roi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Salle des Festins (ou salle du Conseil) – bosquet de l’Obélisque</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1671
 Conçu par Le Nôtre comme une île à quatre lobes entourée d'un canal qui comprend 50 jets d’eau. Une simple fontaine occupe chaque lobe de l’île ; l’accès à l’île étant obtenu par deux petits ponts tournants. Aux quatre points cardinaux se trouvent quatre autres fontaines.
 1706
-Sous la direction de Jules Hardouin-Mansart, le bosquet est complètement transformé. L’île centrale est remplacée par un grand bassin surélevé, ayant une base à cinq gradins, entourée d'un canal. La fontaine centrale se compose de 230 jets d’eau qui, lors du jeu de la fontaine, forment un obélisque, qui donne son nouveau nom au bosquet : bosquet de l’Obélisque[13].
-Bosquet du Théâtre d'eau
-1671-1674
+Sous la direction de Jules Hardouin-Mansart, le bosquet est complètement transformé. L’île centrale est remplacée par un grand bassin surélevé, ayant une base à cinq gradins, entourée d'un canal. La fontaine centrale se compose de 230 jets d’eau qui, lors du jeu de la fontaine, forment un obélisque, qui donne son nouveau nom au bosquet : bosquet de l’Obélisque.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bosquet du Théâtre d'eau</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1671-1674
 L’aspect central de ce bosquet a une forme d’amphithéâtre, avec des rangs de bancs en gazon à trois gradins, pour les spectateurs. La scène est décorée de trois fontaines alternant avec trois cascades.
 1680-1715
 Les statues du bosquet sont remaniées à maintes reprises. En 1709, le bosquet change à nouveau avec l’installation de la fontaine de l’Île aux Enfants.
 1774-1775
-Lors de la replantation des jardins commandée par Louis XVI, le bosquet du Théâtre d'eau est détruit et remplacé par un bosquet simple : le bosquet du Rond-Vert[13].
-Bosquet des Trois-Fontaines (Berceau d’Eau)
-1677-1678
+Lors de la replantation des jardins commandée par Louis XVI, le bosquet du Théâtre d'eau est détruit et remplacé par un bosquet simple : le bosquet du Rond-Vert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Bosquet des Trois-Fontaines (Berceau d’Eau)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1677-1678
 Situé à l’ouest de l’allée des Marmousets, le bosquet des Trois-Fontaines remplace le jeune bosquet du Berceau d’Eau (datant de 1671 ; le Berceau d’Eau était un bosquet long et étroit, qui comprenait bon nombre de jets formant une charmille d’eau). Le nouveau bosquet est transformé par Le Nôtre, qui conçoit un bosquet à trois salles, chaque salle comprenant nombres de fontaines jaillissantes avec effets spéciaux. Le bosquet survit aux modifications demandées par Louis XIV au début du XVIIIe siècle et échappe par conséquent aux replantations de 1774-1775.
 1830
 Le bosquet est replanté et les fontaines supprimées.
 2004
-À la suite des dégâts causés par les tempêtes de 1990 et 1999, le bosquet des Trois-Fontaines est restauré tel qu'avant la suppression des fontaines, puis inauguré le 12 juin 2004[13].
-Bosquet de l’Arc de Triomphe
-1672
+À la suite des dégâts causés par les tempêtes de 1990 et 1999, le bosquet des Trois-Fontaines est restauré tel qu'avant la suppression des fontaines, puis inauguré le 12 juin 2004.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bosquet de l’Arc de Triomphe</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1672
 Le bosquet est d'abord conçu comme un simple pavillon d’eau – un espace ouvert avec une fontaine carrée au milieu.
 1676
 Situé à l’est de l’allée des Marmousets et conçu comme un pendant au bosquet de Trois-Fontaines, le bosquet est enrichi d'un décor faisant allusion aux victoires militaires sur l’Espagne et l’Empire. On y installe l’arc de triomphe, donnant ainsi son nom du bosquet. Comme le bosquet des Trois-Fontaines, le bosquet de l’Arc de Triomphe survit aux modifications du XVIIIe siècle.
 1830
 Lors de la replantation, les fontaines sont supprimées (comme pour le bosquet des Trois-Fontaines).
-Actuellement[Quand ?], le bosquet est en cours de restauration[13].
-Bosquet d'Encelade
-1675
+Actuellement[Quand ?], le bosquet est en cours de restauration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bosquet d'Encelade</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1675
 Il suit une évolution semblable au bosquet de la Renommée, la fontaine du bosquet représentant le Titan Encelade vaincu, enseveli sous le volcan de l’Etna, consumé par sa lave.
 1678
-Un anneau octogonal en gazon et huit fontaines en rocaille sont installées autour de la fontaine centrale. Elles sont supprimées en 1708. La fontaine, dont le jet d’eau est le plus haut de toutes celles de Versailles (25 m), est  une allégorie faisant allusion à la victoire de Louis XIV sur la Fronde[13].
-Bosquet des Sources - La Colonnade
-1678
+Un anneau octogonal en gazon et huit fontaines en rocaille sont installées autour de la fontaine centrale. Elles sont supprimées en 1708. La fontaine, dont le jet d’eau est le plus haut de toutes celles de Versailles (25 m), est  une allégorie faisant allusion à la victoire de Louis XIV sur la Fronde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_de_Versailles</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Liste des bosquets</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bosquet des Sources - La Colonnade</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1678
 Pensé comme une simple salle de verdure, Le Nôtre le rehausse en y ajoutant un ruisseau existant, afin de créer un bosquet aux ruisselets serpentant parmi neuf petites îles. À cette époque, le bosquet prend le nom de bosquet des Sources.
 1684
 Jules Hardouin-Mansart change complètement le bosquet, en créant un double péristyle aux arcs. La Colonnade – nom adopté pour la construction – comprend à l’origine 32 arcs et 31 fontaines, chaque arc enjambant un jet d’eau simple, jaillissant dans une vasque placée dessous, sauf un, réservé à l’entrée du bosquet.
 1696
 La statue « Enlèvement de Proserpine », un des « enlèvements » de la Grande Commande de 1664, est installée au centre de la Colonnade.
 1704
-Trois entrées supplémentaires sont ajoutées, réduisant le nombre de fontaines à 28[13].</t>
+Trois entrées supplémentaires sont ajoutées, réduisant le nombre de fontaines à 28.</t>
         </is>
       </c>
     </row>
